--- a/docs/Documentation-TimeSeriesForecasting Example Tables Iteration 7.xlsx
+++ b/docs/Documentation-TimeSeriesForecasting Example Tables Iteration 7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="11055" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="11055" tabRatio="601" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="132">
   <si>
     <t>ResourceGroup</t>
   </si>
@@ -43,9 +43,6 @@
     <t>CustomerName</t>
   </si>
   <si>
-    <t>AzureExtendedCost</t>
-  </si>
-  <si>
     <t>2017</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>Sliding Window</t>
-  </si>
-  <si>
-    <t>ExtendedCost</t>
   </si>
   <si>
     <t>SlidingWindowId</t>
@@ -441,6 +435,9 @@
   </si>
   <si>
     <t>4d5102c5-eeba-4dd2-917f-6002c00ab1ed</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
@@ -861,6 +858,18 @@
     <xf numFmtId="2" fontId="7" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -881,18 +890,6 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,11 +1115,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1967168096"/>
-        <c:axId val="-1967172992"/>
+        <c:axId val="-160325872"/>
+        <c:axId val="-160331856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1967168096"/>
+        <c:axId val="-160325872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1967172992"/>
+        <c:crossAx val="-160331856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1164,7 +1161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1967172992"/>
+        <c:axId val="-160331856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1967168096"/>
+        <c:crossAx val="-160325872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2454,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2475,21 +2472,21 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3">
         <v>62.425871000000001</v>
@@ -2497,13 +2494,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="3">
         <v>521.58237499999996</v>
@@ -2511,13 +2508,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3">
         <v>505.14735000000002</v>
@@ -2525,13 +2522,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3">
         <v>511.48435000000001</v>
@@ -2539,13 +2536,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3">
         <v>571.99867600000005</v>
@@ -2553,13 +2550,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3">
         <v>534.49810300000001</v>
@@ -2567,13 +2564,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="3">
         <v>174.153696</v>
@@ -2581,13 +2578,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D9" s="3">
         <v>706.22753599999999</v>
@@ -2595,13 +2592,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3">
         <v>159.26630800000001</v>
@@ -2609,13 +2606,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3">
         <v>181.443039</v>
@@ -2623,13 +2620,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3">
         <v>66.277218000000005</v>
@@ -2637,13 +2634,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>418.02024899999998</v>
@@ -2651,13 +2648,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3">
         <v>482.67710499999998</v>
@@ -2665,13 +2662,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="3">
         <v>747.52601800000002</v>
@@ -2679,13 +2676,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="3">
         <v>811.78909999999996</v>
@@ -2693,13 +2690,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3">
         <v>129.761506</v>
@@ -2707,13 +2704,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D18" s="3">
         <v>62.417169000000001</v>
@@ -2721,13 +2718,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3">
         <v>349.691014</v>
@@ -2735,13 +2732,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" s="3">
         <v>84.046610000000001</v>
@@ -2749,13 +2746,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="3">
         <v>991.74172399999998</v>
@@ -2763,13 +2760,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="3">
         <v>1376.5118629999999</v>
@@ -2777,13 +2774,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="3">
         <v>1417.200981</v>
@@ -2791,13 +2788,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="3">
         <v>1323.8790059999999</v>
@@ -2805,13 +2802,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="3">
         <v>1417.5262869999999</v>
@@ -2819,13 +2816,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="3">
         <v>1482.984608</v>
@@ -2833,13 +2830,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D27" s="3">
         <v>1392.6002450000001</v>
@@ -2847,13 +2844,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D28" s="3">
         <v>3.708742</v>
@@ -2861,13 +2858,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3">
         <v>791.335643</v>
@@ -2875,13 +2872,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3">
         <v>814.41524700000002</v>
@@ -2889,13 +2886,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D31" s="3">
         <v>785.32863999999995</v>
@@ -2903,13 +2900,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="3">
         <v>1470.5583389999999</v>
@@ -2917,13 +2914,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D33" s="3">
         <v>2326.0041430000001</v>
@@ -2931,13 +2928,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="3">
         <v>1689.475874</v>
@@ -2945,13 +2942,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D35" s="3">
         <v>160.43826799999999</v>
@@ -2959,13 +2956,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="3">
         <v>105.164535</v>
@@ -2973,13 +2970,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="3">
         <v>818.70064400000001</v>
@@ -2987,13 +2984,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D38" s="3">
         <v>733.53719100000001</v>
@@ -3001,13 +2998,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39" s="3">
         <v>615.18873099999996</v>
@@ -3015,13 +3012,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D40" s="3">
         <v>843.64213600000005</v>
@@ -3029,13 +3026,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D41" s="3">
         <v>847.43007899999998</v>
@@ -3043,13 +3040,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D42" s="3">
         <v>962.60970399999997</v>
@@ -3057,13 +3054,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D43" s="3">
         <v>937.45691599999998</v>
@@ -3071,13 +3068,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D44" s="3">
         <v>793.75707</v>
@@ -3085,13 +3082,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D45" s="3">
         <v>209.24846199999999</v>
@@ -3099,13 +3096,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D46" s="3">
         <v>624.503332</v>
@@ -3113,13 +3110,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D47" s="3">
         <v>157.92627400000001</v>
@@ -3127,13 +3124,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D48" s="3">
         <v>94.806647999999996</v>
@@ -3141,13 +3138,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D49" s="3">
         <v>331.49458700000002</v>
@@ -3155,13 +3152,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D50" s="3">
         <v>1094.8714689999999</v>
@@ -3169,13 +3166,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D51" s="3">
         <v>11.883747</v>
@@ -3183,13 +3180,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D52" s="3">
         <v>472.59895</v>
@@ -3197,13 +3194,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D53" s="3">
         <v>0.83299800000000002</v>
@@ -3211,13 +3208,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D54" s="3">
         <v>14.25061</v>
@@ -3225,13 +3222,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D55" s="3">
         <v>365.02168699999999</v>
@@ -3239,13 +3236,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D56" s="3">
         <v>377.02555100000001</v>
@@ -3253,13 +3250,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D57" s="3">
         <v>377.00591600000001</v>
@@ -3267,13 +3264,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D58" s="3">
         <v>364.793497</v>
@@ -3281,13 +3278,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D59" s="3">
         <v>377.05493100000001</v>
@@ -3295,13 +3292,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D60" s="3">
         <v>364.84447299999999</v>
@@ -3309,13 +3306,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D61" s="3">
         <v>360.10880400000002</v>
@@ -3323,13 +3320,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D62" s="3">
         <v>377.29336899999998</v>
@@ -3337,13 +3334,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D63" s="3">
         <v>338.27981599999998</v>
@@ -3351,13 +3348,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D64" s="3">
         <v>290.37731000000002</v>
@@ -3365,13 +3362,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D65" s="3">
         <v>71.590547000000001</v>
@@ -3379,13 +3376,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D66" s="3">
         <v>3.2762129999999998</v>
@@ -3393,13 +3390,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D67" s="3">
         <v>539.91759400000001</v>
@@ -3407,13 +3404,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D68" s="3">
         <v>1063.7394670000001</v>
@@ -3421,13 +3418,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D69" s="3">
         <v>1147.9824149999999</v>
@@ -3435,13 +3432,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D70" s="3">
         <v>1130.1576789999999</v>
@@ -3449,13 +3446,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D71" s="3">
         <v>25.727224</v>
@@ -3463,13 +3460,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D72" s="3">
         <v>535.16875900000002</v>
@@ -3477,13 +3474,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D73" s="3">
         <v>549.42336599999999</v>
@@ -3491,13 +3488,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D74" s="3">
         <v>547.66675299999997</v>
@@ -3505,13 +3502,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D75" s="3">
         <v>534.47210600000005</v>
@@ -3519,13 +3516,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D76" s="3">
         <v>555.55644400000006</v>
@@ -3533,13 +3530,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D77" s="3">
         <v>537.24272900000005</v>
@@ -3547,13 +3544,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D78" s="3">
         <v>555.99744299999998</v>
@@ -3561,13 +3558,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D79" s="3">
         <v>555.55579799999998</v>
@@ -3575,13 +3572,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D80" s="3">
         <v>501.62261599999999</v>
@@ -3589,13 +3586,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D81" s="3">
         <v>6.1326790000000004</v>
@@ -3603,13 +3600,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D82" s="3">
         <v>1383.307988</v>
@@ -3617,13 +3614,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D83" s="3">
         <v>2048.1483939999998</v>
@@ -3631,13 +3628,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D84" s="3">
         <v>1977.280765</v>
@@ -3645,13 +3642,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D85" s="3">
         <v>2696.0048790000001</v>
@@ -3659,13 +3656,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C86" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D86" s="3">
         <v>3922.0802170000002</v>
@@ -3673,13 +3670,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D87" s="3">
         <v>3380.446586</v>
@@ -3687,13 +3684,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D88" s="3">
         <v>78.022476999999995</v>
@@ -3701,13 +3698,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D89" s="3">
         <v>104.337219</v>
@@ -3715,13 +3712,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D90" s="3">
         <v>1198.689159</v>
@@ -3729,13 +3726,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D91" s="3">
         <v>1277.9478429999999</v>
@@ -3743,13 +3740,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D92" s="3">
         <v>1321.9317590000001</v>
@@ -3757,13 +3754,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D93" s="3">
         <v>661.28179</v>
@@ -3771,13 +3768,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D94" s="3">
         <v>349.44050199999998</v>
@@ -3785,13 +3782,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D95" s="3">
         <v>350.26422100000002</v>
@@ -3799,13 +3796,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D96" s="3">
         <v>467.91980799999999</v>
@@ -3813,13 +3810,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D97" s="3">
         <v>489.48769800000002</v>
@@ -3827,13 +3824,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D98" s="3">
         <v>487.54962799999998</v>
@@ -3841,13 +3838,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C99" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D99" s="3">
         <v>504.73464000000001</v>
@@ -3855,13 +3852,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D100" s="3">
         <v>453.92595899999998</v>
@@ -3869,13 +3866,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D101" s="3">
         <v>174.16582500000001</v>
@@ -3883,13 +3880,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D102" s="3">
         <v>520.002522</v>
@@ -3897,13 +3894,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D103" s="3">
         <v>552.20103600000004</v>
@@ -3911,13 +3908,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D104" s="3">
         <v>571.80952100000002</v>
@@ -3925,13 +3922,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C105" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D105" s="3">
         <v>573.13186299999995</v>
@@ -3939,13 +3936,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D106" s="3">
         <v>592.79918999999995</v>
@@ -3953,13 +3950,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D107" s="3">
         <v>119.98298699999999</v>
@@ -3967,13 +3964,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C108" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D108" s="3">
         <v>1139.753725</v>
@@ -3981,13 +3978,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D109" s="3">
         <v>979.73350100000005</v>
@@ -3995,13 +3992,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D110" s="3">
         <v>485.34854899999999</v>
@@ -4009,13 +4006,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C111" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D111" s="3">
         <v>164.69181499999999</v>
@@ -4023,13 +4020,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D112" s="3">
         <v>97.555424000000002</v>
@@ -4037,13 +4034,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D113" s="3">
         <v>70.725697999999994</v>
@@ -4051,13 +4048,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D114" s="3">
         <v>134.10135</v>
@@ -4065,13 +4062,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D115" s="3">
         <v>79.735624999999999</v>
@@ -4079,13 +4076,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D116" s="3">
         <v>442.266818</v>
@@ -4093,13 +4090,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D117" s="3">
         <v>349.445876</v>
@@ -4107,13 +4104,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D118" s="3">
         <v>349.76528100000002</v>
@@ -4121,13 +4118,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D119" s="3">
         <v>346.93559699999997</v>
@@ -4135,13 +4132,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D120" s="3">
         <v>376.29925800000001</v>
@@ -4149,13 +4146,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D121" s="3">
         <v>399.63806799999998</v>
@@ -4163,13 +4160,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D122" s="3">
         <v>499.48790000000002</v>
@@ -4177,13 +4174,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C123" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D123" s="3">
         <v>465.587468</v>
@@ -4191,13 +4188,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D124" s="3">
         <v>390.75815399999999</v>
@@ -4205,13 +4202,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D125" s="3">
         <v>113.159558</v>
@@ -4219,13 +4216,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D126" s="3">
         <v>10.869752999999999</v>
@@ -4233,13 +4230,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D127" s="3">
         <v>546.14754900000003</v>
@@ -4247,13 +4244,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D128" s="3">
         <v>8.9513999999999996E-2</v>
@@ -4261,13 +4258,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D129" s="3">
         <v>562.71158200000002</v>
@@ -4275,13 +4272,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D130" s="3">
         <v>5.3079000000000001E-2</v>
@@ -4289,13 +4286,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D131" s="3">
         <v>544.07758799999999</v>
@@ -4303,13 +4300,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D132" s="3">
         <v>9.6839999999999999E-3</v>
@@ -4317,13 +4314,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D133" s="3">
         <v>562.58536400000003</v>
@@ -4331,13 +4328,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D134" s="3">
         <v>2.2490000000000001E-3</v>
@@ -4345,13 +4342,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D135" s="3">
         <v>562.26647600000001</v>
@@ -4359,13 +4356,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D136" s="3">
         <v>509.55900300000002</v>
@@ -4373,13 +4370,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D137" s="3">
         <v>212.578891</v>
@@ -4387,13 +4384,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C138" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D138" s="3">
         <v>710.048631</v>
@@ -4401,13 +4398,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D139" s="3">
         <v>168.67567600000001</v>
@@ -4415,13 +4412,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C140" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D140" s="3">
         <v>713.71035400000005</v>
@@ -4429,13 +4426,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D141" s="3">
         <v>956.87044700000001</v>
@@ -4443,13 +4440,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C142" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D142" s="3">
         <v>313.04682600000001</v>
@@ -4457,13 +4454,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D143" s="3">
         <v>651.80890999999997</v>
@@ -4471,13 +4468,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D144" s="4">
         <v>58.495117999999998</v>
@@ -4485,13 +4482,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D145" s="4">
         <v>615.26458400000001</v>
@@ -4499,13 +4496,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D146" s="4">
         <v>659.83638900000005</v>
@@ -4513,13 +4510,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D147" s="4">
         <v>635.69236999999998</v>
@@ -4527,13 +4524,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D148" s="4">
         <v>612.26623900000004</v>
@@ -4541,13 +4538,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D149" s="4">
         <v>632.94259699999998</v>
@@ -4555,13 +4552,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D150" s="4">
         <v>609.95777299999997</v>
@@ -4569,13 +4566,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D151" s="4">
         <v>629.63622199999998</v>
@@ -4583,13 +4580,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C152" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D152" s="4">
         <v>629.66067899999996</v>
@@ -4597,13 +4594,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D153" s="4">
         <v>568.34456799999998</v>
@@ -4611,13 +4608,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D154" s="3">
         <v>102.02692399999999</v>
@@ -4625,13 +4622,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D155" s="3">
         <v>5.6350000000000003E-3</v>
@@ -4639,13 +4636,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D156" s="3">
         <v>70.184736000000001</v>
@@ -4653,13 +4650,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D157" s="3">
         <v>602.05110200000001</v>
@@ -4667,13 +4664,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D158" s="3">
         <v>649.04481899999996</v>
@@ -4681,13 +4678,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D159" s="3">
         <v>666.05129999999997</v>
@@ -4695,13 +4692,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C160" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D160" s="3">
         <v>739.91219599999999</v>
@@ -4709,13 +4706,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D161" s="3">
         <v>686.67119600000001</v>
@@ -4723,13 +4720,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D162" s="3">
         <v>0.25199899999999997</v>
@@ -4737,13 +4734,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D163" s="3">
         <v>38.556787</v>
@@ -4751,13 +4748,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D164" s="3">
         <v>637.59542399999998</v>
@@ -4765,13 +4762,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C165" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D165" s="3">
         <v>652.73789599999998</v>
@@ -4779,13 +4776,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D166" s="3">
         <v>1184.548374</v>
@@ -4793,13 +4790,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D167" s="3">
         <v>961.38884900000005</v>
@@ -4807,13 +4804,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D168" s="3">
         <v>1001.887189</v>
@@ -4821,13 +4818,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D169" s="3">
         <v>1068.174211</v>
@@ -4835,13 +4832,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D170" s="3">
         <v>1214.448558</v>
@@ -4849,13 +4846,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C171" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D171" s="3">
         <v>1311.737828</v>
@@ -4863,13 +4860,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D172" s="3">
         <v>1198.823813</v>
@@ -4877,13 +4874,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D173" s="3">
         <v>87.709000000000003</v>
@@ -4891,13 +4888,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D174" s="3">
         <v>66.276052000000007</v>
@@ -4905,13 +4902,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D175" s="3">
         <v>87.244701000000006</v>
@@ -4919,13 +4916,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D176" s="3">
         <v>311.03901200000001</v>
@@ -4933,13 +4930,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C177" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D177" s="3">
         <v>375.92377699999997</v>
@@ -4947,13 +4944,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D178" s="3">
         <v>346.49922600000002</v>
@@ -4961,13 +4958,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D179" s="3">
         <v>963.15454099999999</v>
@@ -4975,13 +4972,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D180" s="3">
         <v>1090.738836</v>
@@ -4989,13 +4986,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D181" s="3">
         <v>1250.4096019999999</v>
@@ -5003,13 +5000,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C182" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D182" s="3">
         <v>1354.2221010000001</v>
@@ -5017,13 +5014,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D183" s="3">
         <v>1238.879717</v>
@@ -5031,13 +5028,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D184" s="3">
         <v>0.75599899999999998</v>
@@ -5045,13 +5042,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D185" s="3">
         <v>160.27406099999999</v>
@@ -5059,13 +5056,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D186" s="3">
         <v>181.49152699999999</v>
@@ -5073,13 +5070,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D187" s="3">
         <v>66.411004000000005</v>
@@ -5087,13 +5084,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D188" s="3">
         <v>0.50399899999999997</v>
@@ -5101,13 +5098,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D189" s="3">
         <v>613.13220899999999</v>
@@ -5115,13 +5112,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D190" s="3">
         <v>265.11027999999999</v>
@@ -5129,13 +5126,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D191" s="3">
         <v>604.97208499999999</v>
@@ -5143,13 +5140,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D192" s="3">
         <v>1137.3881819999999</v>
@@ -5157,13 +5154,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C193" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D193" s="3">
         <v>1422.4677979999999</v>
@@ -5171,13 +5168,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D194" s="3">
         <v>1283.159527</v>
@@ -5185,13 +5182,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D195" s="3">
         <v>561.16018099999997</v>
@@ -5199,13 +5196,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C196" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D196" s="3">
         <v>162.21717599999999</v>
@@ -5213,13 +5210,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D197" s="3">
         <v>661.39914999999996</v>
@@ -5227,13 +5224,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C198" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D198" s="3">
         <v>706.65129100000001</v>
@@ -5241,13 +5238,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D199" s="3">
         <v>944.254277</v>
@@ -5255,13 +5252,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D200" s="3">
         <v>44.605255</v>
@@ -5269,13 +5266,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D201" s="3">
         <v>658.42467299999998</v>
@@ -5283,13 +5280,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C202" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D202" s="3">
         <v>651.56634699999995</v>
@@ -5297,13 +5294,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C203" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D203" s="3">
         <v>243.48223400000001</v>
@@ -5311,13 +5308,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D204" s="3">
         <v>146.458268</v>
@@ -5325,13 +5322,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C205" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D205" s="3">
         <v>658.85696499999995</v>
@@ -5339,13 +5336,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D206" s="3">
         <v>474.77232400000003</v>
@@ -5353,13 +5350,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D207" s="3">
         <v>143.83830800000001</v>
@@ -5367,13 +5364,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C208" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D208" s="3">
         <v>377.09194600000001</v>
@@ -5381,13 +5378,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D209" s="3">
         <v>338.91985699999998</v>
@@ -5395,13 +5392,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D210" s="3">
         <v>346.60240399999998</v>
@@ -5409,13 +5406,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C211" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D211" s="3">
         <v>952.02915099999996</v>
@@ -5423,13 +5420,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D212" s="3">
         <v>844.510402</v>
@@ -5437,13 +5434,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D213" s="3">
         <v>1552.017458</v>
@@ -5451,13 +5448,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D214" s="3">
         <v>9.6547920000000005</v>
@@ -5465,13 +5462,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D215" s="3">
         <v>338.03660000000002</v>
@@ -5479,13 +5476,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D216" s="3">
         <v>565.51591900000005</v>
@@ -5493,13 +5490,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D217" s="3">
         <v>845.96604400000001</v>
@@ -5507,13 +5504,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D218" s="3">
         <v>818.70748700000001</v>
@@ -5521,13 +5518,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D219" s="3">
         <v>846.36688100000003</v>
@@ -5535,13 +5532,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D220" s="3">
         <v>814.03178500000001</v>
@@ -5549,13 +5546,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D221" s="3">
         <v>845.53850999999997</v>
@@ -5563,13 +5560,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C222" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D222" s="3">
         <v>844.95139099999994</v>
@@ -5577,13 +5574,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D223" s="3">
         <v>779.89713700000004</v>
@@ -5591,13 +5588,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C224" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D224" s="3">
         <v>221.64287100000001</v>
@@ -5605,13 +5602,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D225" s="3">
         <v>944.44361900000001</v>
@@ -5619,13 +5616,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C226" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D226" s="3">
         <v>178.990286</v>
@@ -5633,13 +5630,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D227" s="3">
         <v>775.31693600000006</v>
@@ -5647,13 +5644,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D228" s="3">
         <v>18.654191000000001</v>
@@ -5661,13 +5658,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D229" s="3">
         <v>362.89845500000001</v>
@@ -5675,13 +5672,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D230" s="3">
         <v>377.06728099999998</v>
@@ -5689,13 +5686,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D231" s="3">
         <v>377.157464</v>
@@ -5703,13 +5700,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D232" s="3">
         <v>364.52530000000002</v>
@@ -5717,13 +5714,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D233" s="3">
         <v>377.11613299999999</v>
@@ -5731,13 +5728,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D234" s="3">
         <v>365.366939</v>
@@ -5745,13 +5742,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D235" s="3">
         <v>359.81267700000001</v>
@@ -5759,13 +5756,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C236" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D236" s="3">
         <v>377.86667399999999</v>
@@ -5773,13 +5770,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D237" s="3">
         <v>338.88184699999999</v>
@@ -5787,13 +5784,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D238" s="3">
         <v>123.64323899999999</v>
@@ -5801,13 +5798,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D239" s="3">
         <v>260.906229</v>
@@ -5815,13 +5812,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D240" s="3">
         <v>514.88012800000001</v>
@@ -5829,13 +5826,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C241" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D241" s="3">
         <v>690.38234999999997</v>
@@ -5843,13 +5840,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D242" s="3">
         <v>638.41357300000004</v>
@@ -5857,13 +5854,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D243" s="3">
         <v>151.45407</v>
@@ -5871,13 +5868,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D244" s="3">
         <v>362.92303900000002</v>
@@ -5885,13 +5882,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D245" s="3">
         <v>132.569807</v>
@@ -5899,13 +5896,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D246" s="3">
         <v>147.92737199999999</v>
@@ -5913,13 +5910,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D247" s="3">
         <v>66.278673999999995</v>
@@ -5927,13 +5924,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D248" s="3">
         <v>263.82237199999997</v>
@@ -5941,13 +5938,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D249" s="3">
         <v>488.61963700000001</v>
@@ -5955,13 +5952,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C250" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D250" s="3">
         <v>554.31369400000005</v>
@@ -5969,13 +5966,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D251" s="3">
         <v>492.54686900000002</v>
@@ -5983,13 +5980,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D252" s="3">
         <v>332.05731100000003</v>
@@ -5997,13 +5994,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D253" s="3">
         <v>791.75836000000004</v>
@@ -6011,13 +6008,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D254" s="3">
         <v>814.98695599999996</v>
@@ -6025,13 +6022,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D255" s="3">
         <v>786.09353099999998</v>
@@ -6039,13 +6036,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D256" s="3">
         <v>366.125787</v>
@@ -6053,13 +6050,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C257" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D257" s="3">
         <v>115.211629</v>
@@ -6067,13 +6064,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D258" s="3">
         <v>491.23488600000002</v>
@@ -6081,13 +6078,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D259" s="3">
         <v>0.75599899999999998</v>
@@ -6095,13 +6092,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D260" s="3">
         <v>62.244655000000002</v>
@@ -6109,13 +6106,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D261" s="3">
         <v>362.881643</v>
@@ -6123,13 +6120,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D262" s="3">
         <v>132.55198899999999</v>
@@ -6137,13 +6134,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D263" s="3">
         <v>68.801132999999993</v>
@@ -6151,13 +6148,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D264" s="3">
         <v>371.63334500000002</v>
@@ -6165,13 +6162,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D265" s="3">
         <v>632.83862299999998</v>
@@ -6179,13 +6176,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B266" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C266" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D266" s="3">
         <v>863.58176900000001</v>
@@ -6193,13 +6190,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D267" s="3">
         <v>813.59121000000005</v>
@@ -6207,13 +6204,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C268" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D268" s="3">
         <v>192.15524199999999</v>
@@ -6221,13 +6218,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D269" s="3">
         <v>776.64687000000004</v>
@@ -6235,13 +6232,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D270" s="3">
         <v>357.78917999999999</v>
@@ -6249,13 +6246,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D271" s="3">
         <v>889.48461099999997</v>
@@ -6263,13 +6260,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D272" s="3">
         <v>860.76860399999998</v>
@@ -6277,13 +6274,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D273" s="3">
         <v>891.11880299999996</v>
@@ -6291,13 +6288,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D274" s="3">
         <v>865.02806699999996</v>
@@ -6305,13 +6302,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D275" s="3">
         <v>878.30918399999996</v>
@@ -6319,13 +6316,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C276" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D276" s="3">
         <v>896.13352999999995</v>
@@ -6333,13 +6330,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D277" s="3">
         <v>807.974784</v>
@@ -6347,13 +6344,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D278" s="3">
         <v>39.564808999999997</v>
@@ -6361,13 +6358,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D279" s="3">
         <v>373.426333</v>
@@ -6375,13 +6372,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C280" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D280" s="3">
         <v>400.94469900000001</v>
@@ -6389,13 +6386,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C281" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D281" s="3">
         <v>365.08336700000001</v>
@@ -6403,13 +6400,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D282" s="3">
         <v>2710.403961</v>
@@ -6417,13 +6414,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D283" s="3">
         <v>294.18389200000001</v>
@@ -6431,13 +6428,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D284" s="3">
         <v>378.26097499999997</v>
@@ -6445,13 +6442,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D285" s="3">
         <v>416.67255899999998</v>
@@ -6459,13 +6456,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D286" s="3">
         <v>503.10197799999997</v>
@@ -6473,13 +6470,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C287" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D287" s="3">
         <v>464.090644</v>
@@ -6487,13 +6484,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D288" s="3">
         <v>388.576549</v>
@@ -6662,8 +6659,8 @@
   </sheetPr>
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6697,37 +6694,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="H1" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="H1" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H2" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="M2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="N2" s="37" t="s">
         <v>35</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6792,28 +6789,28 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H5" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="A7" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="59"/>
-      <c r="K7" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="59"/>
+      <c r="H7" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="63"/>
+      <c r="K7" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="63"/>
       <c r="N7" s="36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -6830,26 +6827,26 @@
         <v>0</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="22"/>
@@ -6861,16 +6858,16 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="34">
         <v>58.495117999999998</v>
@@ -6909,16 +6906,16 @@
     </row>
     <row r="10" spans="1:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" s="34">
         <v>615.26458400000001</v>
@@ -6954,16 +6951,16 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" s="34">
         <v>659.83638900000005</v>
@@ -6999,16 +6996,16 @@
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="34">
         <v>635.69236999999998</v>
@@ -7043,23 +7040,23 @@
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" s="34">
         <v>612.26623900000004</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="66" t="s">
-        <v>21</v>
+      <c r="G13" s="59" t="s">
+        <v>20</v>
       </c>
       <c r="H13" s="12">
         <f t="shared" si="0"/>
@@ -7090,22 +7087,22 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="39">
         <v>632.94259699999998</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="67"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="14">
         <f t="shared" si="0"/>
         <v>632.94259699999998</v>
@@ -7135,22 +7132,22 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="40">
         <v>609.95777299999997</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="67"/>
+      <c r="G15" s="60"/>
       <c r="H15" s="14">
         <f t="shared" si="0"/>
         <v>609.95777299999997</v>
@@ -7180,22 +7177,22 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="40">
         <v>629.63622199999998</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="67"/>
+      <c r="G16" s="60"/>
       <c r="H16" s="14">
         <f t="shared" si="0"/>
         <v>629.63622199999998</v>
@@ -7225,22 +7222,22 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>17</v>
-      </c>
       <c r="C17" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="40">
         <v>629.66067899999996</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="67"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="14">
         <f t="shared" si="0"/>
         <v>629.66067899999996</v>
@@ -7270,28 +7267,28 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="40">
         <v>568.34456799999998</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="68"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="16">
         <f t="shared" si="0"/>
         <v>568.34456799999998</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" s="19"/>
       <c r="M18" s="19"/>
@@ -7306,27 +7303,27 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="6"/>
       <c r="J19" s="7"/>
       <c r="K19" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="28"/>
@@ -7370,10 +7367,10 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G22" s="10"/>
-      <c r="H22" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="59"/>
+      <c r="H22" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="63"/>
       <c r="J22" s="5"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
@@ -7392,10 +7389,10 @@
       <c r="E23"/>
       <c r="G23" s="8"/>
       <c r="H23" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23"/>
@@ -7417,8 +7414,8 @@
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="G24" s="63" t="s">
-        <v>21</v>
+      <c r="G24" s="67" t="s">
+        <v>20</v>
       </c>
       <c r="H24" s="48">
         <v>58.495117999999998</v>
@@ -7446,7 +7443,7 @@
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="G25" s="64"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="50">
         <v>615.26458400000001</v>
       </c>
@@ -7462,7 +7459,7 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="G26" s="64"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="50">
         <v>659.83638900000005</v>
       </c>
@@ -7478,12 +7475,12 @@
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="G27" s="65"/>
+      <c r="G27" s="69"/>
       <c r="H27" s="52">
         <v>635.69236999999998</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
@@ -7505,27 +7502,27 @@
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F29" s="46"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="59"/>
+      <c r="H29" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="63"/>
       <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F30" s="46"/>
       <c r="G30" s="8"/>
       <c r="H30" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J30" s="46"/>
     </row>
     <row r="31" spans="1:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="46"/>
-      <c r="G31" s="63" t="s">
-        <v>21</v>
+      <c r="G31" s="67" t="s">
+        <v>20</v>
       </c>
       <c r="H31" s="48">
         <v>58.495117999999998</v>
@@ -7542,7 +7539,7 @@
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32" s="46"/>
-      <c r="G32" s="64"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="50">
         <v>615.26458400000001</v>
       </c>
@@ -7557,7 +7554,7 @@
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F33" s="46"/>
-      <c r="G33" s="64"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="50">
         <v>659.83638900000005</v>
       </c>
@@ -7568,7 +7565,7 @@
     </row>
     <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F34" s="46"/>
-      <c r="G34" s="64"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="50">
         <v>635.69236999999998</v>
       </c>
@@ -7579,7 +7576,7 @@
     </row>
     <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35" s="46"/>
-      <c r="G35" s="64"/>
+      <c r="G35" s="68"/>
       <c r="H35" s="50">
         <v>612.26623900000004</v>
       </c>
@@ -7589,28 +7586,28 @@
       <c r="J35" s="46"/>
     </row>
     <row r="36" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G36" s="65"/>
+      <c r="G36" s="69"/>
       <c r="H36" s="52">
         <v>632.94259699999998</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G38" s="10"/>
-      <c r="H38" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="59"/>
+      <c r="H38" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="63"/>
     </row>
     <row r="39" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G39" s="8"/>
       <c r="H39" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="6:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7623,8 +7620,8 @@
       </c>
     </row>
     <row r="41" spans="6:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="60" t="s">
-        <v>21</v>
+      <c r="G41" s="64" t="s">
+        <v>20</v>
       </c>
       <c r="H41" s="53">
         <v>615.26458400000001</v>
@@ -7634,7 +7631,7 @@
       </c>
     </row>
     <row r="42" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G42" s="61"/>
+      <c r="G42" s="65"/>
       <c r="H42" s="55">
         <v>659.83638900000005</v>
       </c>
@@ -7643,7 +7640,7 @@
       </c>
     </row>
     <row r="43" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G43" s="61"/>
+      <c r="G43" s="65"/>
       <c r="H43" s="55">
         <v>635.69236999999998</v>
       </c>
@@ -7652,7 +7649,7 @@
       </c>
     </row>
     <row r="44" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G44" s="61"/>
+      <c r="G44" s="65"/>
       <c r="H44" s="55">
         <v>612.26623900000004</v>
       </c>
@@ -7661,7 +7658,7 @@
       </c>
     </row>
     <row r="45" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G45" s="61"/>
+      <c r="G45" s="65"/>
       <c r="H45" s="55">
         <v>632.94259699999998</v>
       </c>
@@ -7670,27 +7667,27 @@
       </c>
     </row>
     <row r="46" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G46" s="62"/>
+      <c r="G46" s="66"/>
       <c r="H46" s="58">
         <v>609.95777299999997</v>
       </c>
       <c r="I46" s="47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="H1:N1"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="G41:G46"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="G24:G27"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="G31:G36"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="H1:N1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
@@ -7722,54 +7719,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="43" t="s">
+      <c r="H1" s="43" t="s">
         <v>41</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="44" t="s">
+      <c r="F2" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="G2" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="H2" s="44" t="s">
         <v>47</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
